--- a/REGULAR/OJT/CHACON, ELISA.xlsx
+++ b/REGULAR/OJT/CHACON, ELISA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="339">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2156,9 +2156,9 @@
   <dimension ref="A2:K554"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A490" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:J8"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="I509" sqref="I509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2319,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.863999999999976</v>
+        <v>88.113999999999976</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2329,7 +2329,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.5</v>
+        <v>180.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13359,15 +13359,19 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40"/>
+      <c r="A508" s="40">
+        <v>45078</v>
+      </c>
       <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
@@ -13375,8 +13379,12 @@
       <c r="K508" s="20"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40"/>
-      <c r="B509" s="20"/>
+      <c r="A509" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
@@ -13388,7 +13396,9 @@
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
+      <c r="K509" s="49">
+        <v>45119</v>
+      </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
